--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
   <si>
     <t>問題ファイル</t>
     <rPh sb="0" eb="2">
@@ -42,38 +42,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>正解となる解答が選択肢に入っている</t>
-    <rPh sb="0" eb="2">
-      <t>セイカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>同一の選択問題内で選択肢が複数かぶっていない</t>
   </si>
   <si>
     <t>ブロックプログラミングより解答が推測できる</t>
-  </si>
-  <si>
-    <t>評価１</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>評価２</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>評価３</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>問題数</t>
@@ -137,6 +109,208 @@
     <rPh sb="6" eb="8">
       <t>イジョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設問１</t>
+    <rPh sb="0" eb="2">
+      <t>セツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設問２</t>
+    <rPh sb="0" eb="2">
+      <t>セツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設問３</t>
+    <rPh sb="0" eb="2">
+      <t>セツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>簡単</t>
+    <rPh sb="0" eb="2">
+      <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難しい</t>
+    <rPh sb="0" eb="1">
+      <t>ムズカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正解となる解答が選択肢に入っている</t>
+  </si>
+  <si>
+    <t>設問４</t>
+    <rPh sb="0" eb="2">
+      <t>セツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設問５</t>
+    <rPh sb="0" eb="2">
+      <t>セツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設問６</t>
+    <rPh sb="0" eb="2">
+      <t>セツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(=,==,+=,-=) : =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(=,==,+=,-=):=</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(+,-,*,/,%):*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(+,-,*,/,%):/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(+,-,*,/,%):+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(=,==,+=,-=):+=</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>switch,PI,= : =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*,for,toLowerCase : *</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(/,textReplace,&lt;):/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;,&gt;,&lt;=,&gt;=,==,!= : &gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(+,-,*,/,%):%</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>for,while,do : for</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;,&gt;,&lt;=,&gt;=,==,!= : &lt;=</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(?,: ): :</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(if,else,switch):if</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(&lt;,&gt;,&lt;=,&gt;=,==,!= ): ==</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true,=,replace : =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>function,textReplace,&lt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>textReplace,atan2,if : if</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>log, + ,atan : +</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>switch,= continue : =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(+=, : , =) : =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(=,==,+=,-=) : +=</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(*,=,sort):=</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(=,atan2,*):=</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>do,+,textReplace : +</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>function, return : return</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(? ,:) : :</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>toUpperCase,toLowerCase,textTpTitleCase : toLowerCase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(?, :): ?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>return, tan, switch : return</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(&gt;=, : , toUpperCase) : :</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(pow,=,+=):+=</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(&lt;,&gt;,&lt;=,&gt;=,==,!=) : &gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -189,10 +363,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -476,13 +650,13 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="20.9140625" customWidth="1"/>
     <col min="8" max="8" width="13.25" customWidth="1"/>
     <col min="9" max="9" width="13.58203125" customWidth="1"/>
     <col min="10" max="10" width="14.83203125" customWidth="1"/>
@@ -496,53 +670,53 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" t="s">
+        <v>18</v>
       </c>
       <c r="G2">
         <f>COUNT(A8:A25)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="25" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -553,104 +727,377 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="126" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
-        <v>9</v>
-      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="337" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="337" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="結果" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="78">
   <si>
     <t>問題ファイル</t>
     <rPh sb="0" eb="2">
@@ -459,19 +459,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>選択肢から正解が推測できるか</t>
-    <rPh sb="0" eb="3">
-      <t>センタクシ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セイカイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>スイソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>選択肢から正解が推測できるか(正解と関係ない種類の解答が２つ存在する場合）</t>
     <rPh sb="0" eb="3">
       <t>センタクシ</t>
@@ -499,6 +486,47 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>簡単</t>
+    <rPh sb="0" eb="2">
+      <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難しい</t>
+    <rPh sb="0" eb="1">
+      <t>ムズカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢から正解が推測できるか(Y/N)</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイソク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -548,7 +576,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -694,6 +722,43 @@
         <color indexed="64"/>
       </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -711,7 +776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -727,12 +792,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -766,6 +825,40 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1101,18 +1194,18 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="54" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
@@ -1121,22 +1214,22 @@
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1147,18 +1240,18 @@
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -1168,18 +1261,18 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5">
@@ -1188,22 +1281,22 @@
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="22" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1214,18 +1307,18 @@
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5">
@@ -1234,18 +1327,18 @@
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:13" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5">
@@ -1254,22 +1347,22 @@
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="22" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1280,18 +1373,18 @@
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:13" ht="54" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5">
@@ -1300,18 +1393,18 @@
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:13" ht="54" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
@@ -1320,22 +1413,22 @@
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="22" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1346,18 +1439,18 @@
       <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:13" ht="54" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5">
@@ -1366,18 +1459,18 @@
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:13" ht="126" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5">
@@ -1386,22 +1479,22 @@
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="22" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1412,18 +1505,18 @@
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="2"/>
@@ -1468,7 +1561,7 @@
   <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1481,14 +1574,14 @@
         <v>2</v>
       </c>
       <c r="K1" s="3"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
@@ -1498,14 +1591,14 @@
         <v>50</v>
       </c>
       <c r="K2" s="3"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="21"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="19"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
@@ -1515,14 +1608,14 @@
         <v>51</v>
       </c>
       <c r="K3" s="3"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="21"/>
+      <c r="S3" s="19"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
@@ -1532,14 +1625,14 @@
         <v>52</v>
       </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
@@ -1563,7 +1656,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1576,117 +1669,117 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="I7" s="3"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="26" t="s">
         <v>57</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="21"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="21"/>
+      <c r="Q9" s="19"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="19">
+    <row r="10" spans="1:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="17">
         <v>4</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="11">
-        <v>2</v>
-      </c>
-      <c r="H10" s="11" t="s">
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>55</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="19">
+    <row r="11" spans="1:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="17">
         <v>4</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="5">
@@ -1708,22 +1801,22 @@
         <v>55</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="19">
+    <row r="12" spans="1:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="5">
@@ -1745,19 +1838,19 @@
         <v>55</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <v>4</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1778,21 +1871,21 @@
       <c r="G13" s="5">
         <v>1</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-    </row>
-    <row r="14" spans="1:19" ht="18.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="19">
+      <c r="H13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+    </row>
+    <row r="14" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="17">
         <v>4</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1813,21 +1906,21 @@
       <c r="G14" s="5">
         <v>2</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-    </row>
-    <row r="15" spans="1:19" ht="18.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="19">
+      <c r="H14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+    </row>
+    <row r="15" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="17">
         <v>4</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1848,21 +1941,21 @@
       <c r="G15" s="5">
         <v>4</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
+      <c r="H15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
     </row>
     <row r="16" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <v>4</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1883,21 +1976,21 @@
       <c r="G16" s="5">
         <v>1</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-    </row>
-    <row r="17" spans="1:19" ht="18.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="19">
+      <c r="H16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+    </row>
+    <row r="17" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="17">
         <v>4</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1918,21 +2011,21 @@
       <c r="G17" s="5">
         <v>2</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-    </row>
-    <row r="18" spans="1:19" ht="18.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="19">
+      <c r="H17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+    </row>
+    <row r="18" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="17">
         <v>4</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1953,21 +2046,21 @@
       <c r="G18" s="5">
         <v>2</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-    </row>
-    <row r="19" spans="1:19" ht="18.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="19">
+      <c r="H18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+    </row>
+    <row r="19" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="17">
         <v>4</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1988,21 +2081,21 @@
       <c r="G19" s="5">
         <v>2</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-    </row>
-    <row r="20" spans="1:19" ht="18.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="19">
+      <c r="H19" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+    </row>
+    <row r="20" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="17">
         <v>4</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -2023,96 +2116,96 @@
       <c r="G20" s="5">
         <v>2</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
+      <c r="H20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
     </row>
     <row r="21" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="19">
+      <c r="A21" s="17">
         <v>4</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="14">
-        <v>3</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="14">
-        <v>1</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-    </row>
-    <row r="22" spans="1:19" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="19">
+      <c r="C21" s="12">
+        <v>3</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="12">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+    </row>
+    <row r="22" spans="1:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="17">
         <v>5</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="11">
-        <v>1</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="11">
-        <v>2</v>
-      </c>
-      <c r="H22" s="11" t="s">
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="9">
+        <v>2</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>55</v>
       </c>
       <c r="I22" s="3"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="19">
+    <row r="23" spans="1:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A23" s="17">
         <v>5</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="5">
@@ -2134,22 +2227,22 @@
         <v>55</v>
       </c>
       <c r="I23" s="3"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="19">
+    <row r="24" spans="1:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="17">
         <v>5</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="5">
@@ -2171,19 +2264,19 @@
         <v>55</v>
       </c>
       <c r="I24" s="3"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" ht="18.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="19">
+    <row r="25" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="17">
         <v>5</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -2207,18 +2300,18 @@
       <c r="H25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-    </row>
-    <row r="26" spans="1:19" ht="18.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="19">
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+    </row>
+    <row r="26" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="17">
         <v>5</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -2242,18 +2335,18 @@
       <c r="H26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-    </row>
-    <row r="27" spans="1:19" ht="18.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="19">
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+    </row>
+    <row r="27" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="17">
         <v>5</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -2277,18 +2370,18 @@
       <c r="H27" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-    </row>
-    <row r="28" spans="1:19" ht="18.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="19">
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+    </row>
+    <row r="28" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="17">
         <v>5</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -2313,8 +2406,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="18.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="19">
+    <row r="29" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="17">
         <v>5</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -2339,8 +2432,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="18.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="19">
+    <row r="30" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="17">
         <v>5</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2365,8 +2458,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="18.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="19">
+    <row r="31" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="17">
         <v>5</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -2387,12 +2480,12 @@
       <c r="G31" s="5">
         <v>3</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="18.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="19">
+      <c r="H31" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="17">
         <v>5</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -2413,59 +2506,59 @@
       <c r="G32" s="5">
         <v>2</v>
       </c>
-      <c r="H32" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="18.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="19">
+      <c r="H32" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="17">
         <v>5</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="14">
-        <v>3</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="14">
-        <v>2</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="19">
+      <c r="C33" s="12">
+        <v>3</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="12">
+        <v>2</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="17">
         <v>6</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="11">
-        <v>1</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" s="11">
-        <v>3</v>
-      </c>
-      <c r="H34" s="15" t="s">
+      <c r="C34" s="9">
+        <v>1</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="9">
+        <v>3</v>
+      </c>
+      <c r="H34" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I34" s="3"/>
@@ -2480,11 +2573,11 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="19">
+    <row r="35" spans="1:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="17">
         <v>6</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="5">
@@ -2502,7 +2595,7 @@
       <c r="G35" s="5">
         <v>2</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I35" s="3"/>
@@ -2517,11 +2610,11 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="19">
+    <row r="36" spans="1:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="17">
         <v>6</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="5">
@@ -2539,7 +2632,7 @@
       <c r="G36" s="5">
         <v>3</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I36" s="3"/>
@@ -2554,8 +2647,8 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="18.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="19">
+    <row r="37" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="17">
         <v>6</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -2576,12 +2669,12 @@
       <c r="G37" s="5">
         <v>2</v>
       </c>
-      <c r="H37" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="18.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A38" s="19">
+      <c r="H37" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A38" s="17">
         <v>6</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -2602,12 +2695,12 @@
       <c r="G38" s="5">
         <v>2</v>
       </c>
-      <c r="H38" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="18.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A39" s="19">
+      <c r="H38" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A39" s="17">
         <v>6</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -2628,12 +2721,12 @@
       <c r="G39" s="5">
         <v>2</v>
       </c>
-      <c r="H39" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="18.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A40" s="19">
+      <c r="H39" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A40" s="17">
         <v>6</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -2654,12 +2747,12 @@
       <c r="G40" s="5">
         <v>3</v>
       </c>
-      <c r="H40" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="18.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A41" s="19">
+      <c r="H40" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A41" s="17">
         <v>6</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -2680,12 +2773,12 @@
       <c r="G41" s="5">
         <v>3</v>
       </c>
-      <c r="H41" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="18.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A42" s="19">
+      <c r="H41" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A42" s="17">
         <v>6</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -2706,12 +2799,12 @@
       <c r="G42" s="5">
         <v>3</v>
       </c>
-      <c r="H42" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="18.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A43" s="19">
+      <c r="H42" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A43" s="17">
         <v>6</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -2732,12 +2825,12 @@
       <c r="G43" s="5">
         <v>2</v>
       </c>
-      <c r="H43" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="18.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A44" s="19">
+      <c r="H43" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A44" s="17">
         <v>6</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -2758,67 +2851,67 @@
       <c r="G44" s="5">
         <v>3</v>
       </c>
-      <c r="H44" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="18.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A45" s="19">
+      <c r="H44" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A45" s="17">
         <v>6</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="14">
-        <v>3</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45" s="14">
-        <v>3</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A46" s="19">
+      <c r="C45" s="12">
+        <v>3</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="12">
+        <v>3</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A46" s="17">
         <v>7</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="11">
-        <v>1</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G46" s="11">
-        <v>2</v>
-      </c>
-      <c r="H46" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A47" s="19">
+      <c r="C46" s="9">
+        <v>1</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G46" s="9">
+        <v>2</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A47" s="17">
         <v>7</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="5">
@@ -2836,15 +2929,15 @@
       <c r="G47" s="5">
         <v>2</v>
       </c>
-      <c r="H47" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A48" s="19">
+      <c r="H47" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A48" s="17">
         <v>7</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="5">
@@ -2862,12 +2955,12 @@
       <c r="G48" s="5">
         <v>3</v>
       </c>
-      <c r="H48" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A49" s="19">
+      <c r="H48" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A49" s="17">
         <v>7</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -2888,12 +2981,12 @@
       <c r="G49" s="5">
         <v>2</v>
       </c>
-      <c r="H49" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="19">
+      <c r="H49" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A50" s="17">
         <v>7</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -2914,12 +3007,12 @@
       <c r="G50" s="5">
         <v>3</v>
       </c>
-      <c r="H50" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A51" s="19">
+      <c r="H50" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A51" s="17">
         <v>7</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -2940,12 +3033,12 @@
       <c r="G51" s="5">
         <v>2</v>
       </c>
-      <c r="H51" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A52" s="19">
+      <c r="H51" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A52" s="17">
         <v>7</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -2966,12 +3059,12 @@
       <c r="G52" s="5">
         <v>2</v>
       </c>
-      <c r="H52" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A53" s="19">
+      <c r="H52" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A53" s="17">
         <v>7</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -2992,12 +3085,12 @@
       <c r="G53" s="5">
         <v>3</v>
       </c>
-      <c r="H53" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A54" s="19">
+      <c r="H53" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A54" s="17">
         <v>7</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -3018,12 +3111,12 @@
       <c r="G54" s="5">
         <v>3</v>
       </c>
-      <c r="H54" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A55" s="19">
+      <c r="H54" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A55" s="17">
         <v>7</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -3044,12 +3137,12 @@
       <c r="G55" s="5">
         <v>2</v>
       </c>
-      <c r="H55" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A56" s="19">
+      <c r="H55" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A56" s="17">
         <v>7</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -3070,67 +3163,67 @@
       <c r="G56" s="5">
         <v>2</v>
       </c>
-      <c r="H56" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A57" s="19">
+      <c r="H56" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A57" s="17">
         <v>7</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="14">
-        <v>3</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G57" s="14">
-        <v>3</v>
-      </c>
-      <c r="H57" s="15" t="s">
+      <c r="C57" s="12">
+        <v>3</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G57" s="12">
+        <v>3</v>
+      </c>
+      <c r="H57" s="13" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A58" s="19">
-        <v>8</v>
-      </c>
-      <c r="B58" s="20" t="s">
+      <c r="A58" s="17">
+        <v>8</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="11">
-        <v>1</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G58" s="11">
-        <v>1</v>
-      </c>
-      <c r="H58" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A59" s="19">
-        <v>8</v>
-      </c>
-      <c r="B59" s="20" t="s">
+      <c r="C58" s="9">
+        <v>1</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" s="9">
+        <v>1</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="17">
+        <v>8</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="5">
@@ -3148,15 +3241,15 @@
       <c r="G59" s="5">
         <v>2</v>
       </c>
-      <c r="H59" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A60" s="19">
-        <v>8</v>
-      </c>
-      <c r="B60" s="20" t="s">
+      <c r="H59" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A60" s="17">
+        <v>8</v>
+      </c>
+      <c r="B60" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="5">
@@ -3174,12 +3267,12 @@
       <c r="G60" s="5">
         <v>3</v>
       </c>
-      <c r="H60" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A61" s="19">
+      <c r="H60" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A61" s="17">
         <v>8</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -3200,12 +3293,12 @@
       <c r="G61" s="5">
         <v>2</v>
       </c>
-      <c r="H61" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A62" s="19">
+      <c r="H61" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A62" s="17">
         <v>8</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -3226,12 +3319,12 @@
       <c r="G62" s="5">
         <v>4</v>
       </c>
-      <c r="H62" s="25" t="s">
+      <c r="H62" s="23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A63" s="19">
+      <c r="A63" s="17">
         <v>8</v>
       </c>
       <c r="B63" s="7" t="s">
@@ -3252,12 +3345,12 @@
       <c r="G63" s="5">
         <v>1</v>
       </c>
-      <c r="H63" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A64" s="19">
+      <c r="H63" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A64" s="17">
         <v>8</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -3278,12 +3371,12 @@
       <c r="G64" s="5">
         <v>4</v>
       </c>
-      <c r="H64" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A65" s="19">
+      <c r="H64" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A65" s="17">
         <v>8</v>
       </c>
       <c r="B65" s="7" t="s">
@@ -3304,12 +3397,12 @@
       <c r="G65" s="5">
         <v>3</v>
       </c>
-      <c r="H65" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A66" s="19">
+      <c r="H65" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A66" s="17">
         <v>8</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -3330,12 +3423,12 @@
       <c r="G66" s="5">
         <v>3</v>
       </c>
-      <c r="H66" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="19">
+      <c r="H66" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A67" s="17">
         <v>8</v>
       </c>
       <c r="B67" s="7" t="s">
@@ -3356,12 +3449,12 @@
       <c r="G67" s="5">
         <v>1</v>
       </c>
-      <c r="H67" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="19">
+      <c r="H67" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A68" s="17">
         <v>8</v>
       </c>
       <c r="B68" s="7" t="s">
@@ -3382,33 +3475,33 @@
       <c r="G68" s="5">
         <v>4</v>
       </c>
-      <c r="H68" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="18.5" hidden="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A69" s="19">
+      <c r="H68" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A69" s="17">
         <v>8</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="14">
-        <v>3</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F69" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G69" s="14">
-        <v>2</v>
-      </c>
-      <c r="H69" s="15" t="s">
+      <c r="C69" s="12">
+        <v>3</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G69" s="12">
+        <v>2</v>
+      </c>
+      <c r="H69" s="13" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3418,11 +3511,6 @@
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="1"/>
-      </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="8">
@@ -3442,64 +3530,91 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="26">
-        <f>COUNTA(評価!A10:A69)</f>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="24">
+        <f>COUNTA(評価!$A$10:$A$69)</f>
         <v>60</v>
       </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="12" t="s">
+      <c r="J1" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="35"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="24">
+        <f>COUNTA(評価!$A$10:$A$69)</f>
+        <v>60</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="27" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="12"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+    <row r="3" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="30"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="5" t="s">
         <v>59</v>
       </c>
@@ -3512,109 +3627,164 @@
       <c r="G3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="H3" s="32"/>
+      <c r="J3" s="14">
+        <f>COUNTIF(評価!$D$10:$D$69,"=y")/$N1</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="15">
+        <f>COUNTIF(評価!$E$10:$E$69,"=y")/$N1</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="15">
+        <f>COUNTIF(評価!$F$10:$F$69,"=y")/$N1</f>
+        <v>0.75</v>
+      </c>
+      <c r="M3" s="33">
+        <f>VAR(評価!$G$10:$G$69)</f>
+        <v>0.57937853107344639</v>
+      </c>
+      <c r="N3" s="16">
+        <f>COUNTIF(評価!$H$10:$H$69,"=n")/$N1</f>
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="16">
+    <row r="4" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="14">
         <f>COUNTIF(評価!$D$10:$D$69,"=y")/$H1</f>
         <v>1</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <f>COUNTIF(評価!$E$10:$E$69,"=y")/H1</f>
         <v>1</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="15">
         <f>COUNTIF(評価!$F$10:$F$69,"=y")/H1</f>
         <v>0.75</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="15">
         <f>COUNTIF(評価!$G$10:$G$69,"=1")/$H1</f>
         <v>0.1</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <f>COUNTIF(評価!$G$10:$G$69,"=2")/$H1</f>
         <v>0.48333333333333334</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="15">
         <f>COUNTIF(評価!$G$10:$G$69,"=3")/$H1</f>
         <v>0.35</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="15">
         <f>COUNTIF(評価!$G$10:$G$69,"=4")/$H1</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="16">
         <f>COUNTIF(評価!$H$10:$H$69,"=y")/$H1</f>
         <v>0.11666666666666667</v>
       </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="J5">
+    <row r="5" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="P5">
         <v>4</v>
       </c>
-      <c r="K5" t="s">
+      <c r="Q5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="26">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="24">
         <f>COUNTIF(評価!$B$10:$B$69,"=簡単")</f>
         <v>15</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="24">
+        <f>COUNTIF(評価!$B$10:$B$69,"=簡単")</f>
+        <v>15</v>
+      </c>
+      <c r="O6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6">
         <v>5</v>
       </c>
-      <c r="K6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="12" t="s">
+      <c r="Q6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="27" t="s">
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="12"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="J7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="30"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="5" t="s">
         <v>59</v>
       </c>
@@ -3627,84 +3797,139 @@
       <c r="G8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="27"/>
-    </row>
-    <row r="9" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="16">
+      <c r="H8" s="32"/>
+      <c r="J8" s="14">
+        <f>COUNTIFS(評価!$D$10:$D$69,"=y",評価!$B$10:$B$69,"=簡単")/$N6</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="15">
+        <f>COUNTIFS(評価!$E$10:$E$69,"=y",評価!$B$10:$B$69,"=簡単")/N6</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="15">
+        <f>COUNTIFS(評価!$F$10:$F$69,"=y",評価!$B$10:$B$69,"=簡単")/$N6</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="M8" s="33">
+        <f>DVARP(評価!$A$8:$H$69,評価!$G$8,$O6:$O7)</f>
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="N8" s="16">
+        <f>COUNTIFS(評価!$H$10:$H$69,"=n",評価!$B$10:$B$69,"=簡単")/$N6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="14">
         <f>COUNTIFS(評価!D$10:D$69,"=y",評価!$B$10:$B$69,"=簡単")/$H6</f>
         <v>1</v>
       </c>
-      <c r="B9" s="17">
-        <f>COUNTIFS(評価!E$10:E$69,"=y",評価!$B$10:$B$69,"=簡単")/$H6</f>
-        <v>1</v>
-      </c>
-      <c r="C9" s="17">
+      <c r="B9" s="15">
+        <f>COUNTIFS(評価!$E$10:$E$69,"=y",評価!$B$10:$B$69,"=簡単")/H6</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="15">
         <f>COUNTIFS(評価!F$10:F$69,"=y",評価!$B$10:$B$69,"=簡単")/$H6</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <f>COUNTIFS(評価!G$10:G$69,"=1",評価!$B$10:$B$69,"=簡単")/$H6</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <f>COUNTIFS(評価!$G$10:$G$69,"=2",評価!$B$10:$B$69,"=簡単")/$H6</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <f>COUNTIFS(評価!$G$10:$G$69,"=3",評価!$B$10:$B$69,"=簡単")/$H6</f>
         <v>0.4</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="15">
         <f>COUNTIFS(評価!$G$10:$G$69,"=4",評価!$B$10:$B$69,"=簡単")/$H6</f>
         <v>0</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="16">
         <f>COUNTIFS(評価!$H$10:$H$69,"=y",評価!$B$10:$B$69,"=簡単")/$H6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="9" t="s">
+    <row r="10" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="26">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="24">
         <f>COUNTIF(評価!$B$10:$B$69,"=普通")</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="12" t="s">
+      <c r="J11" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="24">
+        <f>COUNTIF(評価!$B$10:$B$69,"=普通")</f>
+        <v>30</v>
+      </c>
+      <c r="O11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="27" t="s">
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="12"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="J12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="30"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="5" t="s">
         <v>59</v>
       </c>
@@ -3717,84 +3942,139 @@
       <c r="G13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="27"/>
-    </row>
-    <row r="14" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="16">
+      <c r="H13" s="32"/>
+      <c r="J13" s="14">
+        <f>COUNTIFS(評価!$D$10:$D$69,"=y",評価!$B$10:$B$69,"=普通")/$N11</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="15">
+        <f>COUNTIFS(評価!$E$10:$E$69,"=y",評価!$B$10:$B$69,"=普通")/N11</f>
+        <v>1</v>
+      </c>
+      <c r="L13" s="15">
+        <f>COUNTIFS(評価!$F$10:$F$69,"=y",評価!$B$10:$B$69,"=普通")/$N11</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="M13" s="33">
+        <f>DVARP(評価!$A$8:$H$69,評価!$G$8,$O11:$O12)</f>
+        <v>0.64888888888888885</v>
+      </c>
+      <c r="N13" s="16">
+        <f>COUNTIFS(評価!$H$10:$H$69,"=n",評価!$B$10:$B$69,"=普通")/$N11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="14">
         <f>COUNTIFS(評価!D$10:D$69,"=y",評価!$B$10:$B$69,"=普通")/$H11</f>
         <v>1</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <f>COUNTIFS(評価!E$10:E$69,"=y",評価!$B$10:$B$69,"=普通")/$H11</f>
         <v>1</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="15">
         <f>COUNTIFS(評価!F$10:F$69,"=y",評価!$B$10:$B$69,"=普通")/$H11</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="15">
         <f>COUNTIFS(評価!$G$10:$G$69,"=1",評価!$B$10:$B$69,"=普通")/$H11</f>
         <v>0.1</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <f>COUNTIFS(評価!$G$10:$G$69,"=2",評価!$B$10:$B$69,"=普通")/$H11</f>
         <v>0.43333333333333335</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="15">
         <f>COUNTIFS(評価!$G$10:$G$69,"=3",評価!$B$10:$B$69,"=普通")/$H11</f>
         <v>0.36666666666666664</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="15">
         <f>COUNTIFS(評価!$G$10:$G$69,"=4",評価!$B$10:$B$69,"=普通")/$H11</f>
         <v>0.1</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="16">
         <f>COUNTIFS(評価!$H$10:$H$69,"=y",評価!$B$10:$B$69,"=普通")/$H11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="9" t="s">
+    <row r="15" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="26">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="24">
         <f>COUNTIF(評価!$B$10:$B$69,"=難しい")</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="12" t="s">
+      <c r="J16" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="29"/>
+      <c r="L16" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="24">
+        <f>COUNTIF(評価!$B$10:$B$69,"=難しい")</f>
+        <v>15</v>
+      </c>
+      <c r="O16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="27" t="s">
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="12"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="J17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="30"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="5" t="s">
         <v>59</v>
       </c>
@@ -3807,49 +4087,80 @@
       <c r="G18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="27"/>
-    </row>
-    <row r="19" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="16">
+      <c r="H18" s="32"/>
+      <c r="J18" s="14">
+        <f>COUNTIFS(評価!$D$10:$D$69,"=y",評価!$B$10:$B$69,"=難しい")/$N16</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="15">
+        <f>COUNTIFS(評価!$E$10:$E$69,"=y",評価!$B$10:$B$69,"=難しい")/N16</f>
+        <v>1</v>
+      </c>
+      <c r="L18" s="15">
+        <f>COUNTIFS(評価!$F$10:$F$69,"=y",評価!$B$10:$B$69,"=難しい")/$N16</f>
+        <v>0.8</v>
+      </c>
+      <c r="M18" s="33">
+        <f>DVARP(評価!$A$8:$H$69,評価!$G$8,$O16:$O17)</f>
+        <v>0.5955555555555555</v>
+      </c>
+      <c r="N18" s="16">
+        <f>COUNTIFS(評価!$H$10:$H$69,"=n",評価!$B$10:$B$69,"=難しい")/$N16</f>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="14">
         <f>COUNTIFS(評価!D$10:D$69,"=y",評価!$B$10:$B$69,"=難しい")/$H16</f>
         <v>1</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="15">
         <f>COUNTIFS(評価!E$10:E$69,"=y",評価!$B$10:$B$69,"=難しい")/$H16</f>
         <v>1</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="15">
         <f>COUNTIFS(評価!F$10:F$69,"=y",評価!$B$10:$B$69,"=難しい")/$H16</f>
         <v>0.8</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="15">
         <f>COUNTIFS(評価!$G$10:$G$69,"=1",評価!$B$10:$B$69,"=難しい")/$H16</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="15">
         <f>COUNTIFS(評価!$G$10:$G$69,"=2",評価!$B$10:$B$69,"=難しい")/$H16</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="15">
         <f>COUNTIFS(評価!$G$10:$G$69,"=3",評価!$B$10:$B$69,"=難しい")/$H16</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="15">
         <f>COUNTIFS(評価!$G$10:$G$69,"=4",評価!$B$10:$B$69,"=難しい")/$H16</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="16">
         <f>COUNTIFS(評価!$H$10:$H$69,"=y",評価!$B$10:$B$69,"=難しい")/$H16</f>
         <v>0.46666666666666667</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:G17"/>
+  <mergeCells count="28">
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:G7"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:A13"/>
@@ -3857,18 +4168,11 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:G12"/>
     <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:G17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="337" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="337" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="結果" sheetId="1" r:id="rId1"/>
@@ -975,25 +975,11 @@
   </si>
   <si>
     <r>
-      <t>選択肢のみから正解が推測できない．</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Century"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>（予約語，不等号，四則演算，</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Century"/>
         <family val="1"/>
@@ -1002,7 +988,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="ＭＳ 明朝"/>
         <family val="1"/>
@@ -1011,6 +997,20 @@
       <t>特殊記号）</t>
     </r>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>選択肢のみから正解が推測できない．</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Century"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1020,7 +1020,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1058,10 +1058,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Century"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1072,7 +1079,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1299,122 +1306,21 @@
       <diagonal/>
     </border>
     <border diagonalDown="1">
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal style="thin">
         <color indexed="64"/>
       </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
@@ -1426,7 +1332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1539,20 +1445,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1563,41 +1460,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -13517,21 +13405,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="J1:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
       <c r="G1" s="17" t="s">
         <v>3</v>
       </c>
@@ -13539,11 +13427,11 @@
         <f>COUNTA(評価!$A$10:$A$69)</f>
         <v>60</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="56"/>
       <c r="M1" s="7" t="s">
         <v>3</v>
       </c>
@@ -13556,7 +13444,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="58" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="50" t="s">
@@ -13565,13 +13453,13 @@
       <c r="C2" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="52" t="s">
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="57" t="s">
         <v>67</v>
       </c>
       <c r="J2" s="9" t="s">
@@ -13597,7 +13485,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="55"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
       <c r="D3" s="4" t="s">
@@ -13612,7 +13500,7 @@
       <c r="G3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="52"/>
+      <c r="H3" s="57"/>
       <c r="J3" s="13">
         <f>COUNTIF(評価!$D$10:$D$363,"=y")/$N1</f>
         <v>1</v>
@@ -13689,14 +13577,14 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="17" t="s">
         <v>3</v>
       </c>
@@ -13704,10 +13592,10 @@
         <f>COUNTIF(評価!$B$10:$B$69,"=簡単")</f>
         <v>15</v>
       </c>
-      <c r="J6" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="54"/>
+      <c r="J6" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="53"/>
       <c r="L6" s="17" t="s">
         <v>73</v>
       </c>
@@ -13729,7 +13617,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="58" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="50" t="s">
@@ -13738,13 +13626,13 @@
       <c r="C7" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="52" t="s">
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="57" t="s">
         <v>67</v>
       </c>
       <c r="J7" s="9" t="s">
@@ -13767,7 +13655,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="55"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="50"/>
       <c r="C8" s="50"/>
       <c r="D8" s="4" t="s">
@@ -13782,7 +13670,7 @@
       <c r="G8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="52"/>
+      <c r="H8" s="57"/>
       <c r="J8" s="13">
         <f>COUNTIFS(評価!$D$10:$D$363,"=y",評価!$B$10:$B$363,"=簡単")/$N6</f>
         <v>1</v>
@@ -13840,14 +13728,14 @@
     </row>
     <row r="10" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="17" t="s">
         <v>3</v>
       </c>
@@ -13855,10 +13743,10 @@
         <f>COUNTIF(評価!$B$10:$B$69,"=普通")</f>
         <v>30</v>
       </c>
-      <c r="J11" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="54"/>
+      <c r="J11" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="53"/>
       <c r="L11" s="17" t="s">
         <v>75</v>
       </c>
@@ -13874,7 +13762,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="58" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="50" t="s">
@@ -13883,13 +13771,13 @@
       <c r="C12" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="52" t="s">
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="57" t="s">
         <v>67</v>
       </c>
       <c r="J12" s="9" t="s">
@@ -13912,7 +13800,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="55"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="50"/>
       <c r="C13" s="50"/>
       <c r="D13" s="4" t="s">
@@ -13927,7 +13815,7 @@
       <c r="G13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="52"/>
+      <c r="H13" s="57"/>
       <c r="J13" s="13">
         <f>COUNTIFS(評価!$D$10:$D$363,"=y",評価!$B$10:$B$363,"=普通")/$N11</f>
         <v>1</v>
@@ -13985,14 +13873,14 @@
     </row>
     <row r="15" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="17" t="s">
         <v>3</v>
       </c>
@@ -14000,10 +13888,10 @@
         <f>COUNTIF(評価!$B$10:$B$69,"=難しい")</f>
         <v>15</v>
       </c>
-      <c r="J16" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="54"/>
+      <c r="J16" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="53"/>
       <c r="L16" s="17" t="s">
         <v>76</v>
       </c>
@@ -14019,7 +13907,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="58" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="50" t="s">
@@ -14028,13 +13916,13 @@
       <c r="C17" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="52" t="s">
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="57" t="s">
         <v>67</v>
       </c>
       <c r="J17" s="9" t="s">
@@ -14057,7 +13945,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="55"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="50"/>
       <c r="C18" s="50"/>
       <c r="D18" s="4" t="s">
@@ -14072,7 +13960,7 @@
       <c r="G18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="52"/>
+      <c r="H18" s="57"/>
       <c r="J18" s="13">
         <f>COUNTIFS(評価!$D$10:$D$363,"=y",評価!$B$10:$B$363,"=難しい")/$N16</f>
         <v>1</v>
@@ -14130,22 +14018,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:G7"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:A13"/>
@@ -14158,6 +14030,22 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:G17"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14169,84 +14057,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="B2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="3.75" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="1.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.08203125" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="2:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:4" ht="23" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" spans="2:4" ht="11" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="60"/>
       <c r="C2" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="61" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="63">
-        <v>1</v>
-      </c>
-      <c r="C3" s="64" t="s">
+    <row r="3" spans="2:4" ht="14" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="61">
+        <v>1</v>
+      </c>
+      <c r="C3" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="63" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="63">
-        <v>2</v>
-      </c>
-      <c r="C4" s="64" t="s">
+    <row r="4" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="61">
+        <v>2</v>
+      </c>
+      <c r="C4" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="63" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="63">
-        <v>3</v>
-      </c>
-      <c r="C5" s="64" t="s">
+    <row r="5" spans="2:4" ht="14" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="61">
+        <v>3</v>
+      </c>
+      <c r="C5" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="63" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="38.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="66">
+    <row r="6" spans="2:4" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="64">
         <v>4</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="64" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="0.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="64"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="64"/>
+    </row>
+    <row r="8" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="61">
+        <v>5</v>
+      </c>
+      <c r="C8" s="62" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="0.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="67"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="71"/>
-    </row>
-    <row r="8" spans="2:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="63">
-        <v>5</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="63" t="s">
         <v>188</v>
       </c>
     </row>

--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="337" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="337" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="結果" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="203">
   <si>
     <t>問題ファイル</t>
     <rPh sb="0" eb="2">
@@ -1012,13 +1012,77 @@
       <t xml:space="preserve"> </t>
     </r>
   </si>
+  <si>
+    <t>全体</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>簡単</t>
+    <rPh sb="0" eb="2">
+      <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難しい</t>
+    <rPh sb="0" eb="1">
+      <t>ムズカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基準１</t>
+    <rPh sb="0" eb="2">
+      <t>キジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基準２</t>
+    <rPh sb="0" eb="2">
+      <t>キジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基準３</t>
+    <rPh sb="0" eb="2">
+      <t>キジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基準４</t>
+    <rPh sb="0" eb="2">
+      <t>キジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基準５</t>
+    <rPh sb="0" eb="2">
+      <t>キジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="181" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1332,7 +1396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1439,36 +1503,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1481,12 +1515,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="通貨" xfId="1" builtinId="7"/>
@@ -1504,6 +1573,1111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>算出!$Q$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>全体</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>算出!$P$9:$P$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>基準１</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>基準２</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>基準３</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>基準４</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>基準５</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>算出!$Q$9:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>0.80587698660392737</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88983050847457623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-713D-4466-AF7C-8E857AE0D2F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>算出!$R$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>簡単</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>算出!$P$9:$P$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>基準１</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>基準２</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>基準３</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>基準４</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>基準５</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>算出!$R$9:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8202247191011236</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>0.7403105668476202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-713D-4466-AF7C-8E857AE0D2F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>算出!$S$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>普通</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>算出!$P$9:$P$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>基準１</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>基準２</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>基準３</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>基準４</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>基準５</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>算出!$S$9:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76704545454545459</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>0.78147598140495866</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-713D-4466-AF7C-8E857AE0D2F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>算出!$T$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>難しい</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>算出!$P$9:$P$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>基準１</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>基準２</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>基準３</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>基準４</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>基準５</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>算出!$T$9:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7752808988764045</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.87842444135841435</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5617977528089888</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-713D-4466-AF7C-8E857AE0D2F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="763012223"/>
+        <c:axId val="763009727"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="763012223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="763009727"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="763009727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="763012223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>530225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3916,28 +5090,28 @@
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="50" t="s">
+      <c r="B8" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="54" t="s">
         <v>57</v>
       </c>
       <c r="I8" s="2"/>
@@ -3953,14 +5127,14 @@
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:19" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
       <c r="I9" s="2"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -13403,23 +14577,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="J1:N3"/>
+    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
       <c r="G1" s="17" t="s">
         <v>3</v>
       </c>
@@ -13427,11 +14604,11 @@
         <f>COUNTA(評価!$A$10:$A$69)</f>
         <v>60</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="56"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="63"/>
       <c r="M1" s="7" t="s">
         <v>3</v>
       </c>
@@ -13443,23 +14620,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="57" t="s">
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="56" t="s">
         <v>67</v>
       </c>
       <c r="J2" s="9" t="s">
@@ -13484,10 +14661,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="58"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+    <row r="3" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="59"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="4" t="s">
         <v>59</v>
       </c>
@@ -13500,7 +14677,7 @@
       <c r="G3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="57"/>
+      <c r="H3" s="56"/>
       <c r="J3" s="13">
         <f>COUNTIF(評価!$D$10:$D$363,"=y")/$N1</f>
         <v>1</v>
@@ -13528,7 +14705,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="13">
         <f>COUNTIF(評価!$D$10:$D$69,"=y")/$H1</f>
         <v>1</v>
@@ -13568,7 +14745,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="P5">
         <v>4</v>
       </c>
@@ -13576,15 +14753,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="52" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="17" t="s">
         <v>3</v>
       </c>
@@ -13592,10 +14769,10 @@
         <f>COUNTIF(評価!$B$10:$B$69,"=簡単")</f>
         <v>15</v>
       </c>
-      <c r="J6" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="53"/>
+      <c r="J6" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="58"/>
       <c r="L6" s="17" t="s">
         <v>73</v>
       </c>
@@ -13616,23 +14793,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="58" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="57" t="s">
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="56" t="s">
         <v>67</v>
       </c>
       <c r="J7" s="9" t="s">
@@ -13654,10 +14831,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="58"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
+    <row r="8" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="59"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="4" t="s">
         <v>59</v>
       </c>
@@ -13670,7 +14847,7 @@
       <c r="G8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="57"/>
+      <c r="H8" s="56"/>
       <c r="J8" s="13">
         <f>COUNTIFS(評価!$D$10:$D$363,"=y",評価!$B$10:$B$363,"=簡単")/$N6</f>
         <v>1</v>
@@ -13691,8 +14868,20 @@
         <f>COUNTIFS(評価!$H$10:$H$363,"=n",評価!$B$10:$B$363,"=簡単")/$N6</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q8" t="s">
+        <v>194</v>
+      </c>
+      <c r="R8" t="s">
+        <v>195</v>
+      </c>
+      <c r="S8" t="s">
+        <v>196</v>
+      </c>
+      <c r="T8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="13">
         <f>COUNTIFS(評価!D$10:D$69,"=y",評価!$B$10:$B$69,"=簡単")/$H6</f>
         <v>1</v>
@@ -13725,17 +14914,56 @@
         <f>COUNTIFS(評価!$H$10:$H$69,"=y",評価!$B$10:$B$69,"=簡単")/$H6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="52" t="s">
+      <c r="P9" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q9" s="67">
+        <f>J$3</f>
+        <v>1</v>
+      </c>
+      <c r="R9" s="67">
+        <f>J8</f>
+        <v>1</v>
+      </c>
+      <c r="S9" s="67">
+        <f>J13</f>
+        <v>1</v>
+      </c>
+      <c r="T9" s="67">
+        <f>J18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="P10" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q10" s="67">
+        <f>K$3</f>
+        <v>1</v>
+      </c>
+      <c r="R10" s="67">
+        <f>K8</f>
+        <v>1</v>
+      </c>
+      <c r="S10" s="67">
+        <f>K13</f>
+        <v>1</v>
+      </c>
+      <c r="T10" s="67">
+        <f>K18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="17" t="s">
         <v>3</v>
       </c>
@@ -13743,10 +14971,10 @@
         <f>COUNTIF(評価!$B$10:$B$69,"=普通")</f>
         <v>30</v>
       </c>
-      <c r="J11" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="53"/>
+      <c r="J11" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="58"/>
       <c r="L11" s="17" t="s">
         <v>75</v>
       </c>
@@ -13760,24 +14988,43 @@
       <c r="O11" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="58" t="s">
+      <c r="P11" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q11" s="67">
+        <f>J3</f>
+        <v>1</v>
+      </c>
+      <c r="R11" s="67">
+        <f>L8</f>
+        <v>0.8202247191011236</v>
+      </c>
+      <c r="S11" s="67">
+        <f>L13</f>
+        <v>0.76704545454545459</v>
+      </c>
+      <c r="T11" s="67">
+        <f>L18</f>
+        <v>0.7752808988764045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="57" t="s">
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="56" t="s">
         <v>67</v>
       </c>
       <c r="J12" s="9" t="s">
@@ -13798,11 +15045,30 @@
       <c r="O12" s="26" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="58"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
+      <c r="P12" s="66" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q12" s="68">
+        <f>M3</f>
+        <v>0.80587698660392737</v>
+      </c>
+      <c r="R12" s="68">
+        <f>M8</f>
+        <v>0.7403105668476202</v>
+      </c>
+      <c r="S12" s="68">
+        <f>M13</f>
+        <v>0.78147598140495866</v>
+      </c>
+      <c r="T12">
+        <f>M18</f>
+        <v>0.87842444135841435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="59"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="4" t="s">
         <v>59</v>
       </c>
@@ -13815,7 +15081,7 @@
       <c r="G13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="57"/>
+      <c r="H13" s="56"/>
       <c r="J13" s="13">
         <f>COUNTIFS(評価!$D$10:$D$363,"=y",評価!$B$10:$B$363,"=普通")/$N11</f>
         <v>1</v>
@@ -13836,8 +15102,27 @@
         <f>COUNTIFS(評価!$H$10:$H$363,"=n",評価!$B$10:$B$363,"=普通")/$N11</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="P13" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q13" s="67">
+        <f>N3</f>
+        <v>0.88983050847457623</v>
+      </c>
+      <c r="R13" s="67">
+        <f>N8</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="67">
+        <f>N13</f>
+        <v>1</v>
+      </c>
+      <c r="T13" s="67">
+        <f>N18</f>
+        <v>0.5617977528089888</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="13">
         <f>COUNTIFS(評価!D$10:D$69,"=y",評価!$B$10:$B$69,"=普通")/$H11</f>
         <v>1</v>
@@ -13871,16 +15156,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="52" t="s">
+    <row r="15" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="17" t="s">
         <v>3</v>
       </c>
@@ -13888,10 +15173,10 @@
         <f>COUNTIF(評価!$B$10:$B$69,"=難しい")</f>
         <v>15</v>
       </c>
-      <c r="J16" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="53"/>
+      <c r="J16" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="58"/>
       <c r="L16" s="17" t="s">
         <v>76</v>
       </c>
@@ -13907,22 +15192,22 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="57" t="s">
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="56" t="s">
         <v>67</v>
       </c>
       <c r="J17" s="9" t="s">
@@ -13945,9 +15230,9 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="58"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="4" t="s">
         <v>59</v>
       </c>
@@ -13960,7 +15245,7 @@
       <c r="G18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="57"/>
+      <c r="H18" s="56"/>
       <c r="J18" s="13">
         <f>COUNTIFS(評価!$D$10:$D$363,"=y",評価!$B$10:$B$363,"=難しい")/$N16</f>
         <v>1</v>
@@ -14018,6 +15303,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:G7"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:A13"/>
@@ -14030,26 +15331,11 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:G17"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14057,7 +15343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="B2:D8"/>
     </sheetView>
   </sheetViews>
@@ -14071,44 +15357,44 @@
   <sheetData>
     <row r="1" spans="2:4" ht="23" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="2" spans="2:4" ht="11" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="60"/>
-      <c r="C2" s="61" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="51" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="14" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="61">
-        <v>1</v>
-      </c>
-      <c r="C3" s="62" t="s">
+      <c r="B3" s="51">
+        <v>1</v>
+      </c>
+      <c r="C3" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="53" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="61">
-        <v>2</v>
-      </c>
-      <c r="C4" s="62" t="s">
+      <c r="B4" s="51">
+        <v>2</v>
+      </c>
+      <c r="C4" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="53" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="14" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="61">
-        <v>3</v>
-      </c>
-      <c r="C5" s="62" t="s">
+      <c r="B5" s="51">
+        <v>3</v>
+      </c>
+      <c r="C5" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="53" t="s">
         <v>188</v>
       </c>
     </row>
@@ -14129,13 +15415,13 @@
       <c r="D7" s="64"/>
     </row>
     <row r="8" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="61">
+      <c r="B8" s="51">
         <v>5</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="53" t="s">
         <v>188</v>
       </c>
     </row>
